--- a/assets/disciplinas/LOB1205.xlsx
+++ b/assets/disciplinas/LOB1205.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Abordar os princípios e conceitos da evolução biológica e da ecologia em suas diferentes escalas: populações, comunidades e ecossistemas, dentro do enfoque da sustentabilidade. Apresentar aspectos econômicos, sociais e culturais da sociedade envolvidos na preservação da biodiversidade e dos ecossistemas.</t>
+    <t>5840942 - Marco Aurélio Kondracki de Alcântara</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840942 - Marco Aurélio Kondracki de Alcântara</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Problemas ambientais, causas e soluções2. Ecossistemas: o que são e como funcionam3. Biodiversidade e evolução4. Biodiversidade, interações de espécies e controle da população5. A população humana e seu impacto</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -109,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita mediante duas avaliações escritas de igual peso (P1 e P2). Alternativamente, essas avaliações escritas poderão ser substituídas por duas notas de igual peso (NOTA 1 e NOTA 2). Essas NOTAS 1 e 2 serão dadas pela média entre atividades desenvolvidas em aula, trabalhos e seminários.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>O aluno poderá optar por dois critérios de avaliação:Critério 1: NF = (P1+P2)/2; ouCritério 2: NF = (NOTA 1 + NOTA 2)/2Sendo P1 e P2 avaliações escritas e NOTA 1 e NOTA 2 obtidas em atividades desenvolvidas em aula, trabalhos e relatórios de aulas práticas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Exame Final (EF) para alunos com Nota Final (NF) maior ou igual a 3,0 e menor do que 5,0 e frequência superior a 70%. Será considerado aprovado o aluno que tenha obtido Média Final (MF) igual ou maior do que 5,0, sendo MF = (NF+EF)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Básica:MILLER, G.T.; SPOOLMAN, S.E. 2012. Ecologia e sustentabilidade. Cengage Learning. 412p.Complementar:BEGON, M., J.L. HARPER &amp; C.R. TOWNSEND. 2005. Ecology. From Individuals to Communities. Blackwell Science.RICKLEFS, R.E. 2003. A economia da natureza. Guanabara Koogan.RICKLEFS, R.E. &amp; G.L. MILLER. 2000. Ecology. W.H. Freeman and Co.TOWNSEND, C.R., M. BEGON. &amp; J.L. HARPER 2006. Fundamentos em ecologia. Artmed.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,34 +608,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -649,26 +646,26 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -693,7 +690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -702,17 +699,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1205.xlsx
+++ b/assets/disciplinas/LOB1205.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Abordar os princípios e conceitos da evolução biológica e da ecologia em suas diferentes escalas: populações, comunidades e ecossistemas, dentro do enfoque da sustentabilidade. Apresentar aspectos econômicos, sociais e culturais da sociedade envolvidos na preservação da biodiversidade e dos ecossistemas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To approach the principles and concepts of biological evolution and ecology in its different scales: populations, communities and ecosystems, within the focus of sustainability. To present economic, social and cultural aspects of society involved in the preservation of biodiversity and ecosystems.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840942 - Marco Aurélio Kondracki de Alcântara</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To approach the principles and concepts of biological evolution and ecology in its different scales: populations, communities and ecosystems, within the focus of sustainability. To present economic, social and cultural aspects of society involved in the preservation of biodiversity and ecosystems.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Problemas ambientais, causas e soluções2. Ecossistemas: o que são e como funcionam3. Biodiversidade e evolução4. Biodiversidade, interações de espécies e controle da população5. A população humana e seu impacto</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -106,22 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita mediante duas avaliações escritas de igual peso (P1 e P2). Alternativamente, essas avaliações escritas poderão ser substituídas por duas notas de igual peso (NOTA 1 e NOTA 2). Essas NOTAS 1 e 2 serão dadas pela média entre atividades desenvolvidas em aula, trabalhos e seminários.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita mediante duas avaliações escritas de igual peso (P1 e P2). Alternativamente, essas avaliações escritas poderão ser substituídas por duas notas de igual peso (NOTA 1 e NOTA 2). Essas NOTAS 1 e 2 serão dadas pela média entre atividades desenvolvidas em aula, trabalhos e seminários.</t>
+    <t>O aluno poderá optar por dois critérios de avaliação:Critério 1: NF = (P1+P2)/2; ouCritério 2: NF = (NOTA 1 + NOTA 2)/2Sendo P1 e P2 avaliações escritas e NOTA 1 e NOTA 2 obtidas em atividades desenvolvidas em aula, trabalhos e relatórios de aulas práticas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>O aluno poderá optar por dois critérios de avaliação:Critério 1: NF = (P1+P2)/2; ouCritério 2: NF = (NOTA 1 + NOTA 2)/2Sendo P1 e P2 avaliações escritas e NOTA 1 e NOTA 2 obtidas em atividades desenvolvidas em aula, trabalhos e relatórios de aulas práticas.</t>
+    <t>Exame Final (EF) para alunos com Nota Final (NF) maior ou igual a 3,0 e menor do que 5,0 e frequência superior a 70%. Será considerado aprovado o aluno que tenha obtido Média Final (MF) igual ou maior do que 5,0, sendo MF = (NF+EF)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Exame Final (EF) para alunos com Nota Final (NF) maior ou igual a 3,0 e menor do que 5,0 e frequência superior a 70%. Será considerado aprovado o aluno que tenha obtido Média Final (MF) igual ou maior do que 5,0, sendo MF = (NF+EF)/2.</t>
+    <t>Básica:MILLER, G.T.; SPOOLMAN, S.E. 2012. Ecologia e sustentabilidade. Cengage Learning. 412p.Complementar:BEGON, M., J.L. HARPER &amp; C.R. TOWNSEND. 2005. Ecology. From Individuals to Communities. Blackwell Science.RICKLEFS, R.E. 2003. A economia da natureza. Guanabara Koogan.RICKLEFS, R.E. &amp; G.L. MILLER. 2000. Ecology. W.H. Freeman and Co.TOWNSEND, C.R., M. BEGON. &amp; J.L. HARPER 2006. Fundamentos em ecologia. Artmed.</t>
   </si>
 </sst>
 </file>
@@ -477,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -608,37 +614,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -646,26 +649,26 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -690,7 +693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -699,6 +702,17 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
